--- a/biology/Médecine/Innate_Pharma/Innate_Pharma.xlsx
+++ b/biology/Médecine/Innate_Pharma/Innate_Pharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Innate Pharma est une entreprise française biopharmaceutique créée en 1999 et basée dans le quartier de Luminy à Marseille. Elle officie dans le domaine de l'oncologie, la spécialité médicale liée au cancer. Elle est cotée à la bourse de Paris et au NASDAQ.
@@ -512,10 +524,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société est spécialisée dans la recherche de traitement des cancers par l'immunothérapie[2],[3]. Son approche originale est de faire appel aux lymphocytes tueurs naturels NK plutôt qu'aux lymphocytes T[4].
-À la suite de performances encourageantes, Innate Pharma a pu signer des contrats avec des groupes pharmaceutiques tels qu'AstraZeneca[5], Bristol-Myers Squibb dans le domaine du cancer[6] ou Novo Nordisk concernant les inflammations.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société est spécialisée dans la recherche de traitement des cancers par l'immunothérapie,. Son approche originale est de faire appel aux lymphocytes tueurs naturels NK plutôt qu'aux lymphocytes T.
+À la suite de performances encourageantes, Innate Pharma a pu signer des contrats avec des groupes pharmaceutiques tels qu'AstraZeneca, Bristol-Myers Squibb dans le domaine du cancer ou Novo Nordisk concernant les inflammations.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Produits en développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La société dispose d'un portefeuille de 3 produits en phases 2 ou 3 de développement clinique : 
 Lacutamab (IPH4102) pour le traitement des lymphomes T cutanés (syndrome de Sézary), qui obtient le statut PRIME de l'Agence européenne des médicaments en novembre 2020.
-La société estime que Lacutamab a un potentiel contre tous les lymphomes T cutanés en rechute ou réfractaires exprimant KIR3DL2, notamment mycosis fongoïde, et mène de nouveaux essais cliniques de phase 2[7],[8]. Un produit dénommé IPH6101 / SAR443579 pourrait être développé contre la Leucémie aigüe myéloïde (LAM) en partenariat avec SANOFI[4].
+La société estime que Lacutamab a un potentiel contre tous les lymphomes T cutanés en rechute ou réfractaires exprimant KIR3DL2, notamment mycosis fongoïde, et mène de nouveaux essais cliniques de phase 2,. Un produit dénommé IPH6101 / SAR443579 pourrait être développé contre la Leucémie aigüe myéloïde (LAM) en partenariat avec SANOFI.
 Monalizumab (IPH2201) : ce produit est déjà, depuis 2018, sous licence par AstraZeneca pour certaines indications. Il fait l'objet de nouveaux essais cliniques pour le traitement des cancers :
-- en phase 3 contre le cancer des voies aérodigestives supérieures (dit : cancer de la tête et du cou) résistant à l'immunothérapie ; au cours de la phase 3, la société doit recevoir 2 versements de la part d'AstraZeneca de 50 millions de dollars chacun[8]. D'autres essais en phase 2 contre le même cancer ont lieu en 2021 en combinaison avec Imfizini et Erbitux (Cétuximab).
-- en phase 2 dans plusieurs autres cancers : poumon, rectum, côlon[8].
+- en phase 3 contre le cancer des voies aérodigestives supérieures (dit : cancer de la tête et du cou) résistant à l'immunothérapie ; au cours de la phase 3, la société doit recevoir 2 versements de la part d'AstraZeneca de 50 millions de dollars chacun. D'autres essais en phase 2 contre le même cancer ont lieu en 2021 en combinaison avec Imfizini et Erbitux (Cétuximab).
+- en phase 2 dans plusieurs autres cancers : poumon, rectum, côlon.
 Avdoralimab (IPH5401) pour le traitement des tumeurs solides, aussi investigué en phase 2 contre l'inflammation dans les formes graves du COVID-19.</t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Accords avec Sanofi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société a des accords avec Sanofi concernant le Lacutamab, et concernant aussi l'utilisation de la plateforme Anket pour créer des anticorps contre le cancer[9]. 
-En décembre 2022, Innate Pharma annonce un nouvel accord important avec Sanofi, permettant à cette société d'accéder à sa plateforme Anket pour un projet oncologique contre la cible B7-H3 et 2 autres cibles, moyennement des paiements et redevances[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société a des accords avec Sanofi concernant le Lacutamab, et concernant aussi l'utilisation de la plateforme Anket pour créer des anticorps contre le cancer. 
+En décembre 2022, Innate Pharma annonce un nouvel accord important avec Sanofi, permettant à cette société d'accéder à sa plateforme Anket pour un projet oncologique contre la cible B7-H3 et 2 autres cibles, moyennement des paiements et redevances.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Principaux actionnaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste mise à jour au 12 décembre 2021[11]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste mise à jour au 12 décembre 2021:
 </t>
         </is>
       </c>
@@ -643,10 +663,12 @@
           <t>Bourse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Innate Pharma est introduit en bourse en 2006. Elle fait partie du CAC Mid&amp;Small, du Next 150, du Next Biotech, du Tech 40.
-En octobre 2019, Innate Pharma se cote au NASDAQ[12] Global Select Market en levant 70 millions d'euros[13].  
+En octobre 2019, Innate Pharma se cote au NASDAQ Global Select Market en levant 70 millions d'euros.  
 </t>
         </is>
       </c>
